--- a/data/da_sampling/raw/da_sampling_species.xlsx
+++ b/data/da_sampling/raw/da_sampling_species.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/dungeness/data/da_sampling/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B2C50-990C-BD44-9F61-D588853433F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43310DAC-3DA3-2E4B-B7F2-D57D08DC8670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="6880" windowWidth="28040" windowHeight="17440" xr2:uid="{CF269C70-1C37-6C4D-A0A8-C30B31813E91}"/>
+    <workbookView xWindow="11100" yWindow="3780" windowWidth="28040" windowHeight="17440" xr2:uid="{CF269C70-1C37-6C4D-A0A8-C30B31813E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
